--- a/data/georgia_census/qvemo-qartli/marneuli/average_wages.xlsx
+++ b/data/georgia_census/qvemo-qartli/marneuli/average_wages.xlsx
@@ -1107,13 +1107,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{813ADABA-F2F2-4CF1-AB4B-F8AED2DD0651}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEC51FE8-8E31-4D5B-A645-83ECE8C6C6E5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCAEC5C1-80CD-4591-BBAA-D48DDFE7E183}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF3C3FC-DA48-49DF-98B1-3F7B1A3C5A72}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA7E54C1-E673-448F-ACFD-603958252860}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CD53A5F-5625-4A72-89BF-E878C7167DC0}"/>
 </file>